--- a/test/plots_MicrotaskComplexity.xlsx
+++ b/test/plots_MicrotaskComplexity.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christian\Documents\GitHub\Complexity_Metrics\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{03F0003E-761E-4545-A0B7-2B99E2CB67C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{000D163D-4903-4A5B-BD3C-2C7FF3A0A406}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="18353" windowHeight="10996" activeTab="1"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="18353" windowHeight="10996" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="microtaskComplexity" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,20 @@
     <sheet name="Plots_ProgramStatementType" sheetId="4" r:id="rId3"/>
     <sheet name="Plots_All" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="41">
   <si>
     <t>fileName</t>
   </si>
@@ -88,9 +96,6 @@
     <t>HIT08_54</t>
   </si>
   <si>
-    <t>Lenght x Volume</t>
-  </si>
-  <si>
     <t>Cyclomatic complexity measures have low spread. Most data is around 1, 2, and 3 measures.</t>
   </si>
   <si>
@@ -132,11 +137,29 @@
   <si>
     <t>Compare the prediction accuracy of character count and Halstead length.</t>
   </si>
+  <si>
+    <t xml:space="preserve"> LOC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Trimmed_LOC</t>
+  </si>
+  <si>
+    <t>LOC has low spread for Method Invocation and Variable Declaration.</t>
+  </si>
+  <si>
+    <t>I also generated LOC without comment lines, lines with single curly bracket, and empty lines.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The difference from LOC count happens only for IF_CONDITIONALS and LOOP. 64 (out of 129) microtasks showed differences. </t>
+  </si>
+  <si>
+    <t>Check if LOC and Trimmed LOC show any predictive differences</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -614,8 +637,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -718,6 +742,14 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1516033716241586"/>
+          <c:y val="3.5796471490667347E-3"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -794,393 +826,123 @@
               <c:f>microtaskComplexity!$E$2:$E$130</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="129"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>427</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>579</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>427</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>181</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>181</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>302</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>302</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>197</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>197</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>320</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>258</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>579</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>43</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1190,393 +952,123 @@
               <c:f>microtaskComplexity!$F$2:$F$130</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="129"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="22">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="23">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="25">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="26">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3</c:v>
-                </c:pt>
                 <c:pt idx="30">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="80">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1902,393 +1394,123 @@
               <c:f>microtaskComplexity!$E$2:$E$130</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="129"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>427</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>579</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>427</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>181</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>181</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>302</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>302</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>197</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>197</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>320</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>258</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>579</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>43</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2298,393 +1520,123 @@
               <c:f>microtaskComplexity!$G$2:$G$130</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="129"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>11</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>74</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>38</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="22">
                   <c:v>38</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="23">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>28</c:v>
-                </c:pt>
                 <c:pt idx="28">
-                  <c:v>28</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>104</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>21</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>21</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>239</c:v>
+                  <c:v>154</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>37</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>41</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>23</c:v>
+                  <c:v>335</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>117</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>37</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>117</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>183</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>183</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>117</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>117</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>183</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>154</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>335</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="127">
                   <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2876,6 +1828,531 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>microtaskComplexity!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> Trimmed_LOC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>microtaskComplexity!$I$2:$I$129</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>microtaskComplexity!$J$2:$J$129</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8A40-4F06-A00F-2E0B171F79F9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="596912639"/>
+        <c:axId val="484031503"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="596912639"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="484031503"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="484031503"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="596912639"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2917,6 +2394,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3988,20 +3505,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>176212</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>214312</xdr:colOff>
       <xdr:row>136</xdr:row>
-      <xdr:rowOff>87312</xdr:rowOff>
+      <xdr:rowOff>39687</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4028,16 +4061,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>199345</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>326345</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>46038</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>237445</xdr:colOff>
-      <xdr:row>136</xdr:row>
-      <xdr:rowOff>7937</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>364445</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>150812</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4057,6 +4090,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>484187</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>49212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>500062</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>53974</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2942423E-A759-48CA-93C9-895D0374E048}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4648,20 +4717,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I130" totalsRowShown="0">
-  <autoFilter ref="A1:I130"/>
-  <tableColumns count="9">
-    <tableColumn id="1" name="fileName"/>
-    <tableColumn id="2" name="ID"/>
-    <tableColumn id="3" name=" line"/>
-    <tableColumn id="4" name=" type"/>
-    <tableColumn id="5" name=" charCount"/>
-    <tableColumn id="6" name=" Cyclomatic_Complexity"/>
-    <tableColumn id="7" name=" Length_Halstead"/>
-    <tableColumn id="8" name=" Volume_Halstead"/>
-    <tableColumn id="9" name="Lenght x Volume" dataDxfId="0">
-      <calculatedColumnFormula>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</calculatedColumnFormula>
-    </tableColumn>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:J130" totalsRowShown="0">
+  <autoFilter ref="A1:J130" xr:uid="{00000000-0009-0000-0100-000001000000}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="FOR_LOOP"/>
+        <filter val="IF_CONDITIONAL"/>
+        <filter val="WHILE_LOOP"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="fileName"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ID"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name=" line"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name=" type"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name=" charCount"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name=" Cyclomatic_Complexity"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name=" Length_Halstead"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name=" Volume_Halstead"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name=" LOC" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{10E2163F-25C5-4911-9FEA-3388BC3AD7A5}" name=" Trimmed_LOC"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4963,11 +5039,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J130"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="Y21" sqref="Y21"/>
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5005,10 +5081,13 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+        <v>35</v>
+      </c>
+      <c r="J1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -5034,15 +5113,13 @@
         <v>22</v>
       </c>
       <c r="I2">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -5068,12 +5145,10 @@
         <v>60</v>
       </c>
       <c r="I3">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
@@ -5102,15 +5177,13 @@
         <v>245.82267902166399</v>
       </c>
       <c r="I4">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>3.3219280948873511</v>
+        <v>5</v>
       </c>
       <c r="J4">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>3.3219280948873511</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -5136,15 +5209,13 @@
         <v>50.5323885970368</v>
       </c>
       <c r="I5">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>2.8073549220576002</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>2.8073549220576002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -5170,12 +5241,10 @@
         <v>27.863137138648302</v>
       </c>
       <c r="I6">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>2.3219280948873586</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>2.3219280948873586</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.45">
@@ -5204,12 +5273,10 @@
         <v>140.61670928936101</v>
       </c>
       <c r="I7">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>3.7004397181410793</v>
+        <v>3</v>
       </c>
       <c r="J7">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>3.7004397181410793</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.45">
@@ -5238,12 +5305,10 @@
         <v>140.61670928936101</v>
       </c>
       <c r="I8">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>3.7004397181410793</v>
+        <v>3</v>
       </c>
       <c r="J8">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>3.7004397181410793</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
@@ -5272,15 +5337,13 @@
         <v>126.23326760571901</v>
       </c>
       <c r="I9">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>3.3219280948873422</v>
+        <v>3</v>
       </c>
       <c r="J9">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>3.3219280948873422</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -5306,15 +5369,13 @@
         <v>53.150849518197802</v>
       </c>
       <c r="I10">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>3.3219280948873626</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>3.3219280948873626</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -5340,15 +5401,13 @@
         <v>53.150849518197802</v>
       </c>
       <c r="I11">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>3.3219280948873626</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>3.3219280948873626</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -5374,11 +5433,13 @@
         <v>23.264662506490399</v>
       </c>
       <c r="I12">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>2.5849625007211556</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -5404,11 +5465,13 @@
         <v>37.150849518197703</v>
       </c>
       <c r="I13">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>2.3219280948873564</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -5434,11 +5497,13 @@
         <v>82.418050037500095</v>
       </c>
       <c r="I14">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>3.1699250014423113</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -5464,11 +5529,13 @@
         <v>44.917678752921603</v>
       </c>
       <c r="I15">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>2.8073549220576002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -5494,11 +5561,13 @@
         <v>53.888725024519303</v>
       </c>
       <c r="I16">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>3.1699250014423122</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -5524,11 +5593,13 @@
         <v>53.888725024519303</v>
       </c>
       <c r="I17">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>3.1699250014423122</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -5554,11 +5625,13 @@
         <v>33.604512509374999</v>
       </c>
       <c r="I18">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>2.5849625007211539</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -5584,11 +5657,13 @@
         <v>33.604512509374999</v>
       </c>
       <c r="I19">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>2.5849625007211539</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -5614,11 +5689,13 @@
         <v>27.863137138648302</v>
       </c>
       <c r="I20">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>2.3219280948873586</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -5644,11 +5721,13 @@
         <v>72.378950020192306</v>
       </c>
       <c r="I21">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>2.5849625007211539</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+      <c r="J21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -5674,11 +5753,13 @@
         <v>101.437600046154</v>
       </c>
       <c r="I22">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>3.1699250014423126</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+      <c r="J22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -5704,11 +5785,13 @@
         <v>55.3509058981967</v>
       </c>
       <c r="I23">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>3.4594316186372938</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -5734,11 +5817,13 @@
         <v>55.3509058981967</v>
       </c>
       <c r="I24">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>3.4594316186372938</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -5764,11 +5849,13 @@
         <v>75.798582895555299</v>
       </c>
       <c r="I25">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>2.8073549220576037</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -5794,11 +5881,13 @@
         <v>79.2481250360578</v>
       </c>
       <c r="I26">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>3.1699250014423122</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -5824,11 +5913,13 @@
         <v>203.15831097164201</v>
       </c>
       <c r="I27">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>3.9068905956085</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+      <c r="J27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -5854,11 +5945,13 @@
         <v>38</v>
       </c>
       <c r="I28">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -5884,11 +5977,13 @@
         <v>88.757900040384698</v>
       </c>
       <c r="I29">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>3.1699250014423108</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>13</v>
       </c>
@@ -5914,11 +6009,13 @@
         <v>88.757900040384698</v>
       </c>
       <c r="I30">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>3.1699250014423108</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -5944,11 +6041,13 @@
         <v>433.67220014999998</v>
       </c>
       <c r="I31">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>4.1699250014423077</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+        <v>6</v>
+      </c>
+      <c r="J31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>13</v>
       </c>
@@ -5974,11 +6073,13 @@
         <v>63</v>
       </c>
       <c r="I32">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>13</v>
       </c>
@@ -6004,11 +6105,13 @@
         <v>63</v>
       </c>
       <c r="I33">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>13</v>
       </c>
@@ -6034,11 +6137,13 @@
         <v>1312.5528900227901</v>
       </c>
       <c r="I34">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>5.4918530963296659</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
+        <v>14</v>
+      </c>
+      <c r="J34">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>16</v>
       </c>
@@ -6064,11 +6169,13 @@
         <v>117.28722505336501</v>
       </c>
       <c r="I35">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>3.1699250014422975</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+      <c r="J35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>16</v>
       </c>
@@ -6094,11 +6201,13 @@
         <v>136.19905189038101</v>
       </c>
       <c r="I36">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>3.3219280948873418</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+      <c r="J36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>16</v>
       </c>
@@ -6124,11 +6233,13 @@
         <v>72.908275033173098</v>
       </c>
       <c r="I37">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>3.1699250014423086</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>16</v>
       </c>
@@ -6154,11 +6265,13 @@
         <v>478.233152426289</v>
       </c>
       <c r="I38">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>4.0874628412503329</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
+        <v>10</v>
+      </c>
+      <c r="J38">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>16</v>
       </c>
@@ -6184,11 +6297,13 @@
         <v>117.28722505336501</v>
       </c>
       <c r="I39">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>3.1699250014422975</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+      <c r="J39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>16</v>
       </c>
@@ -6214,11 +6329,13 @@
         <v>136.19905189038101</v>
       </c>
       <c r="I40">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>3.3219280948873418</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+      <c r="J40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>16</v>
       </c>
@@ -6244,11 +6361,13 @@
         <v>72.908275033173098</v>
       </c>
       <c r="I41">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>3.1699250014423086</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>16</v>
       </c>
@@ -6274,11 +6393,13 @@
         <v>478.233152426289</v>
       </c>
       <c r="I42">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>4.0874628412503329</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
+        <v>10</v>
+      </c>
+      <c r="J42">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>16</v>
       </c>
@@ -6304,11 +6425,13 @@
         <v>117.28722505336501</v>
       </c>
       <c r="I43">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>3.1699250014422975</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+      <c r="J43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>16</v>
       </c>
@@ -6334,11 +6457,13 @@
         <v>79.2481250360578</v>
       </c>
       <c r="I44">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>3.1699250014423122</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>16</v>
       </c>
@@ -6364,11 +6489,13 @@
         <v>136.19905189038101</v>
       </c>
       <c r="I45">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>3.3219280948873418</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+      <c r="J45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>16</v>
       </c>
@@ -6394,11 +6521,13 @@
         <v>72.908275033173098</v>
       </c>
       <c r="I46">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>3.1699250014423086</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>16</v>
       </c>
@@ -6424,11 +6553,13 @@
         <v>136.19905189038101</v>
       </c>
       <c r="I47">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>3.3219280948873418</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+      <c r="J47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>16</v>
       </c>
@@ -6454,11 +6585,13 @@
         <v>72.908275033173098</v>
       </c>
       <c r="I48">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>3.1699250014423086</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>16</v>
       </c>
@@ -6484,11 +6617,13 @@
         <v>839.04813763197103</v>
       </c>
       <c r="I49">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>4.5849625007211534</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
+        <v>13</v>
+      </c>
+      <c r="J49">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>16</v>
       </c>
@@ -6514,11 +6649,13 @@
         <v>117.28722505336501</v>
       </c>
       <c r="I50">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>3.1699250014422975</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+      <c r="J50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>16</v>
       </c>
@@ -6544,11 +6681,13 @@
         <v>79.2481250360578</v>
       </c>
       <c r="I51">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>3.1699250014423122</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>16</v>
       </c>
@@ -6574,11 +6713,13 @@
         <v>136.19905189038101</v>
       </c>
       <c r="I52">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>3.3219280948873418</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+      <c r="J52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>16</v>
       </c>
@@ -6604,11 +6745,13 @@
         <v>72.908275033173098</v>
       </c>
       <c r="I53">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>3.1699250014423086</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>16</v>
       </c>
@@ -6634,11 +6777,13 @@
         <v>136.19905189038101</v>
       </c>
       <c r="I54">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>3.3219280948873418</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+      <c r="J54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>16</v>
       </c>
@@ -6664,11 +6809,13 @@
         <v>72.908275033173098</v>
       </c>
       <c r="I55">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>3.1699250014423086</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>16</v>
       </c>
@@ -6694,11 +6841,13 @@
         <v>827.81183795843299</v>
       </c>
       <c r="I56">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>4.5235619560570113</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
+        <v>13</v>
+      </c>
+      <c r="J56">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>16</v>
       </c>
@@ -6724,11 +6873,13 @@
         <v>117.28722505336501</v>
       </c>
       <c r="I57">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>3.1699250014422975</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+      <c r="J57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>16</v>
       </c>
@@ -6754,11 +6905,13 @@
         <v>136.19905189038101</v>
       </c>
       <c r="I58">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>3.3219280948873418</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+      <c r="J58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>16</v>
       </c>
@@ -6784,11 +6937,13 @@
         <v>60</v>
       </c>
       <c r="I59">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>16</v>
       </c>
@@ -6814,11 +6969,13 @@
         <v>478.233152426289</v>
       </c>
       <c r="I60">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>4.0874628412503329</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
+        <v>10</v>
+      </c>
+      <c r="J60">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>16</v>
       </c>
@@ -6844,11 +7001,13 @@
         <v>117.28722505336501</v>
       </c>
       <c r="I61">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>3.1699250014422975</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+      <c r="J61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>16</v>
       </c>
@@ -6874,11 +7033,13 @@
         <v>136.19905189038101</v>
       </c>
       <c r="I62">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>3.3219280948873418</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+      <c r="J62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>16</v>
       </c>
@@ -6904,11 +7065,13 @@
         <v>60</v>
       </c>
       <c r="I63">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>16</v>
       </c>
@@ -6934,11 +7097,13 @@
         <v>478.233152426289</v>
       </c>
       <c r="I64">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>4.0874628412503329</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
+        <v>10</v>
+      </c>
+      <c r="J64">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>16</v>
       </c>
@@ -6964,11 +7129,13 @@
         <v>69.738350031730803</v>
       </c>
       <c r="I65">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>3.169925001442309</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>16</v>
       </c>
@@ -6994,11 +7161,13 @@
         <v>44.917678752921603</v>
       </c>
       <c r="I66">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>2.8073549220576002</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>16</v>
       </c>
@@ -7024,11 +7193,13 @@
         <v>44.917678752921603</v>
       </c>
       <c r="I67">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>2.8073549220576002</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>16</v>
       </c>
@@ -7054,11 +7225,13 @@
         <v>44.917678752921603</v>
       </c>
       <c r="I68">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>2.8073549220576002</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>16</v>
       </c>
@@ -7084,11 +7257,13 @@
         <v>44.917678752921603</v>
       </c>
       <c r="I69">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>2.8073549220576002</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>16</v>
       </c>
@@ -7114,11 +7289,13 @@
         <v>33</v>
       </c>
       <c r="I70">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>16</v>
       </c>
@@ -7144,11 +7321,13 @@
         <v>33</v>
       </c>
       <c r="I71">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>17</v>
       </c>
@@ -7174,11 +7353,13 @@
         <v>61.7618082852672</v>
       </c>
       <c r="I72">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>2.8073549220576002</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>17</v>
       </c>
@@ -7204,11 +7385,13 @@
         <v>61.7618082852672</v>
       </c>
       <c r="I73">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>2.8073549220576002</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>17</v>
       </c>
@@ -7234,11 +7417,13 @@
         <v>136.228575027403</v>
       </c>
       <c r="I74">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>3.5849625007211317</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>17</v>
       </c>
@@ -7264,11 +7449,13 @@
         <v>136.228575027403</v>
       </c>
       <c r="I75">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>3.5849625007211317</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="J75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>17</v>
       </c>
@@ -7294,11 +7481,13 @@
         <v>136.228575027403</v>
       </c>
       <c r="I76">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>3.5849625007211317</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="J76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>17</v>
       </c>
@@ -7324,11 +7513,13 @@
         <v>136.228575027403</v>
       </c>
       <c r="I77">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>3.5849625007211317</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>17</v>
       </c>
@@ -7354,11 +7545,13 @@
         <v>136.228575027403</v>
       </c>
       <c r="I78">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>3.5849625007211317</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="J78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>17</v>
       </c>
@@ -7384,11 +7577,13 @@
         <v>54</v>
       </c>
       <c r="I79">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="J79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>17</v>
       </c>
@@ -7414,11 +7609,13 @@
         <v>54</v>
       </c>
       <c r="I80">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="J80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>18</v>
       </c>
@@ -7444,11 +7641,13 @@
         <v>63.3985000288462</v>
       </c>
       <c r="I81">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>3.1699250014423099</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>18</v>
       </c>
@@ -7474,11 +7673,13 @@
         <v>197.982455946995</v>
       </c>
       <c r="I82">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>3.8073549220575962</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+      <c r="J82">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>18</v>
       </c>
@@ -7504,11 +7705,13 @@
         <v>96.793987519471202</v>
       </c>
       <c r="I83">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>3.5849625007211556</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="J83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>18</v>
       </c>
@@ -7534,11 +7737,13 @@
         <v>201.78981086905199</v>
       </c>
       <c r="I84">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>3.8073549220575846</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+      <c r="J84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>18</v>
       </c>
@@ -7564,11 +7769,13 @@
         <v>39.302968908806399</v>
       </c>
       <c r="I85">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>2.8073549220575997</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>18</v>
       </c>
@@ -7594,11 +7801,13 @@
         <v>284.61114340071998</v>
       </c>
       <c r="I86">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>4.2479275134435817</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.45">
+        <v>6</v>
+      </c>
+      <c r="J86">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>18</v>
       </c>
@@ -7624,11 +7833,13 @@
         <v>23.2192809488736</v>
       </c>
       <c r="I87">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>2.32192809488736</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="J87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>18</v>
       </c>
@@ -7654,11 +7865,13 @@
         <v>23.2192809488736</v>
       </c>
       <c r="I88">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>2.32192809488736</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="J88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>18</v>
       </c>
@@ -7684,11 +7897,13 @@
         <v>30.185065233535699</v>
       </c>
       <c r="I89">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>2.3219280948873613</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="J89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>18</v>
       </c>
@@ -7714,11 +7929,13 @@
         <v>915</v>
       </c>
       <c r="I90">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.45">
+        <v>18</v>
+      </c>
+      <c r="J90">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>18</v>
       </c>
@@ -7744,11 +7961,13 @@
         <v>7</v>
       </c>
       <c r="I91">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="J91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>18</v>
       </c>
@@ -7774,11 +7993,13 @@
         <v>86.370130467071405</v>
       </c>
       <c r="I92">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>3.3219280948873617</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+      <c r="J92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>18</v>
       </c>
@@ -7804,11 +8025,13 @@
         <v>18.575424759098802</v>
       </c>
       <c r="I93">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>2.3219280948873502</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="J93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>18</v>
       </c>
@@ -7834,11 +8057,13 @@
         <v>18.575424759098802</v>
       </c>
       <c r="I94">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>2.3219280948873502</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="J94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>18</v>
       </c>
@@ -7864,11 +8089,13 @@
         <v>13.931568569324099</v>
       </c>
       <c r="I95">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>2.3219280948873497</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="J95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>18</v>
       </c>
@@ -7894,11 +8121,13 @@
         <v>23.2192809488736</v>
       </c>
       <c r="I96">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>2.32192809488736</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="J96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>18</v>
       </c>
@@ -7924,11 +8153,13 @@
         <v>27.863137138648302</v>
       </c>
       <c r="I97">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>2.3219280948873586</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="J97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>18</v>
       </c>
@@ -7954,11 +8185,13 @@
         <v>63.3985000288462</v>
       </c>
       <c r="I98">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>3.1699250014423099</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="J98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>19</v>
       </c>
@@ -7984,11 +8217,13 @@
         <v>217.94419197414899</v>
       </c>
       <c r="I99">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>3.4594316186372858</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+      <c r="J99">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>19</v>
       </c>
@@ -8014,11 +8249,13 @@
         <v>39.302968908806399</v>
       </c>
       <c r="I100">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>2.8073549220575997</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="J100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>19</v>
       </c>
@@ -8044,11 +8281,13 @@
         <v>51.6992500144231</v>
       </c>
       <c r="I101">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>2.5849625007211552</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="J101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>19</v>
       </c>
@@ -8074,11 +8313,13 @@
         <v>73.082418087521901</v>
       </c>
       <c r="I102">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>3.3219280948873591</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="J102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>19</v>
       </c>
@@ -8104,11 +8345,13 @@
         <v>150.56842503028801</v>
       </c>
       <c r="I103">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>3.5849625007211432</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+      <c r="J103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>19</v>
       </c>
@@ -8134,11 +8377,13 @@
         <v>51</v>
       </c>
       <c r="I104">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="J104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>19</v>
       </c>
@@ -8164,11 +8409,13 @@
         <v>51</v>
       </c>
       <c r="I105">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="J105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>19</v>
       </c>
@@ -8194,11 +8441,13 @@
         <v>112.94555522617</v>
       </c>
       <c r="I106">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>3.3219280948873529</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+      <c r="J106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>20</v>
       </c>
@@ -8224,11 +8473,13 @@
         <v>124.539538270942</v>
       </c>
       <c r="I107">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>3.4594316186372778</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="J107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>20</v>
       </c>
@@ -8254,11 +8505,13 @@
         <v>72.991227973497701</v>
       </c>
       <c r="I108">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>2.8073549220576037</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="J108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>20</v>
       </c>
@@ -8284,11 +8537,13 @@
         <v>190.00301253822099</v>
       </c>
       <c r="I109">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>3.5849625007211507</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+      <c r="J109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>20</v>
       </c>
@@ -8314,11 +8569,13 @@
         <v>102.97977094150799</v>
       </c>
       <c r="I110">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>3.3219280948873546</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="J110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>20</v>
       </c>
@@ -8344,11 +8601,13 @@
         <v>686.75246927014302</v>
       </c>
       <c r="I111">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>4.459431618637292</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.45">
+        <v>8</v>
+      </c>
+      <c r="J111">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>20</v>
       </c>
@@ -8374,11 +8633,13 @@
         <v>226.59965454529399</v>
       </c>
       <c r="I112">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>3.9068905956085169</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+      <c r="J112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>20</v>
       </c>
@@ -8404,11 +8665,13 @@
         <v>50.5323885970368</v>
       </c>
       <c r="I113">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>2.8073549220576002</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="J113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>20</v>
       </c>
@@ -8434,11 +8697,13 @@
         <v>50.5323885970368</v>
       </c>
       <c r="I114">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>2.8073549220576002</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="J114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>20</v>
       </c>
@@ -8464,11 +8729,13 @@
         <v>50.5323885970368</v>
       </c>
       <c r="I115">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>2.8073549220576002</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="J115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>20</v>
       </c>
@@ -8494,11 +8761,13 @@
         <v>50.5323885970368</v>
       </c>
       <c r="I116">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>2.8073549220576002</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="J116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>20</v>
       </c>
@@ -8524,11 +8793,13 @@
         <v>61.7618082852672</v>
       </c>
       <c r="I117">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>2.8073549220576002</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="J117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>20</v>
       </c>
@@ -8554,11 +8825,13 @@
         <v>161.32331253245201</v>
       </c>
       <c r="I118">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>3.5849625007211556</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+      <c r="J118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>20</v>
       </c>
@@ -8584,11 +8857,13 @@
         <v>37.150849518197703</v>
       </c>
       <c r="I119">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>2.3219280948873564</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="J119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>20</v>
       </c>
@@ -8614,11 +8889,13 @@
         <v>1675</v>
       </c>
       <c r="I120">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.45">
+        <v>20</v>
+      </c>
+      <c r="J120">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>20</v>
       </c>
@@ -8644,11 +8921,13 @@
         <v>195.34452978042501</v>
       </c>
       <c r="I121">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>3.9068905956085</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+      <c r="J121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>20</v>
       </c>
@@ -8674,11 +8953,13 @@
         <v>39.302968908806399</v>
       </c>
       <c r="I122">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>2.8073549220575997</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="J122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>20</v>
       </c>
@@ -8704,11 +8985,13 @@
         <v>39.302968908806399</v>
       </c>
       <c r="I123">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>2.8073549220575997</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="J123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>20</v>
       </c>
@@ -8734,11 +9017,13 @@
         <v>39.302968908806399</v>
       </c>
       <c r="I124">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>2.8073549220575997</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="J124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>20</v>
       </c>
@@ -8764,11 +9049,13 @@
         <v>39.302968908806399</v>
       </c>
       <c r="I125">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>2.8073549220575997</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="J125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>20</v>
       </c>
@@ -8794,11 +9081,13 @@
         <v>187.530748589208</v>
       </c>
       <c r="I126">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>3.9068905956085</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+      <c r="J126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>20</v>
       </c>
@@ -8824,11 +9113,13 @@
         <v>33.604512509374999</v>
       </c>
       <c r="I127">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>2.5849625007211539</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="J127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>20</v>
       </c>
@@ -8854,11 +9145,13 @@
         <v>33.604512509374999</v>
       </c>
       <c r="I128">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>2.5849625007211539</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="J128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
         <v>20</v>
       </c>
@@ -8884,11 +9177,13 @@
         <v>74.963912520913496</v>
       </c>
       <c r="I129">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>2.5849625007211552</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+      <c r="J129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>20</v>
       </c>
@@ -8914,8 +9209,10 @@
         <v>28.073549220576002</v>
       </c>
       <c r="I130">
-        <f>Table1[[#This Row],[ Volume_Halstead]]/Table1[[#This Row],[ Length_Halstead]]</f>
-        <v>2.8073549220576002</v>
+        <v>1</v>
+      </c>
+      <c r="J130">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -8928,95 +9225,116 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:A17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A2:A22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>26</v>
+      <c r="A2" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A17" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A18" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="AM11" sqref="AM11"/>
     </sheetView>
   </sheetViews>
@@ -9028,7 +9346,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A58" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
